--- a/Team12Report.xlsx
+++ b/Team12Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antond/Documents/cs555/CS555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F537CD4-3DEB-8B41-AAF1-BDEFB6F6E127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDC6F8-9234-CE4B-9BA9-B35D40E95ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="185">
   <si>
     <t>Initials</t>
   </si>
@@ -617,6 +617,9 @@
       <t>Meeting on zoom. Overlapping work.</t>
     </r>
   </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -626,7 +629,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -637,31 +640,30 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -713,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -740,10 +742,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3129,7 +3132,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8674,7 +8677,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8752,7 +8755,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>180</v>
@@ -12758,7 +12761,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12844,8 +12847,11 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="H5">
-        <v>20</v>
+      <c r="G5" s="18">
+        <v>10</v>
+      </c>
+      <c r="H5" s="18">
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>181</v>
@@ -12870,8 +12876,11 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>20</v>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>181</v>
@@ -12896,6 +12905,9 @@
       <c r="F7">
         <v>20</v>
       </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
       <c r="H7">
         <v>20</v>
       </c>
@@ -12921,6 +12933,9 @@
       </c>
       <c r="F8" s="2">
         <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -13026,7 +13041,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>183</v>
       </c>
       <c r="I20" s="4"/>
@@ -16955,13 +16970,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16993,16 +17010,126 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Team12Report.xlsx
+++ b/Team12Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antond/Documents/cs555/CS555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDC6F8-9234-CE4B-9BA9-B35D40E95ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC418C-25C4-1E46-850F-B07FF889296F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="184">
   <si>
     <t>Initials</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>AD</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>Yes</t>
@@ -3131,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3141,7 +3138,7 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3196,6 +3193,9 @@
       <c r="D2" t="s">
         <v>177</v>
       </c>
+      <c r="E2" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3210,6 +3210,9 @@
       <c r="D3" t="s">
         <v>177</v>
       </c>
+      <c r="E3" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3224,6 +3227,9 @@
       <c r="D4" t="s">
         <v>178</v>
       </c>
+      <c r="E4" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3238,6 +3244,9 @@
       <c r="D5" t="s">
         <v>178</v>
       </c>
+      <c r="E5" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3252,6 +3261,9 @@
       <c r="D6" t="s">
         <v>179</v>
       </c>
+      <c r="E6" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3265,6 +3277,9 @@
       </c>
       <c r="D7" t="s">
         <v>179</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8677,7 +8692,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8753,12 +8768,15 @@
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>58</v>
+      </c>
       <c r="E3" s="2">
         <v>125</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>180</v>
+      <c r="F3" s="5">
+        <f>D3/E3</f>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12761,7 +12779,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12854,7 +12872,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12883,7 +12901,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12912,7 +12930,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12941,7 +12959,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12963,11 +12981,14 @@
       <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
       <c r="H9">
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12989,11 +13010,14 @@
       <c r="F10">
         <v>30</v>
       </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
       <c r="H10">
         <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13024,7 +13048,7 @@
     </row>
     <row r="16" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -13042,7 +13066,7 @@
     </row>
     <row r="20" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -16970,7 +16994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+    <sheetView zoomScale="174" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -17027,7 +17051,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17047,7 +17071,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17067,7 +17091,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17087,7 +17111,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17107,7 +17131,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17127,7 +17151,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Team12Report.xlsx
+++ b/Team12Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antond/Documents/cs555/CS555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33BAF2-43B0-A94E-9BFF-53E54EB5B77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B006A12-EE16-CD45-BC8F-BD014014EA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t>Initials</t>
   </si>
@@ -615,9 +615,6 @@
     </r>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
 </sst>
@@ -1023,6 +1020,9 @@
                 <c:pt idx="1">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1037,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,7 +3135,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3298,6 +3301,9 @@
       <c r="D8" t="s">
         <v>177</v>
       </c>
+      <c r="E8" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3312,6 +3318,9 @@
       <c r="D9" t="s">
         <v>177</v>
       </c>
+      <c r="E9" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3326,6 +3335,9 @@
       <c r="D10" t="s">
         <v>179</v>
       </c>
+      <c r="E10" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3340,6 +3352,9 @@
       <c r="D11" t="s">
         <v>179</v>
       </c>
+      <c r="E11" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3354,6 +3369,9 @@
       <c r="D12" t="s">
         <v>178</v>
       </c>
+      <c r="E12" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3367,6 +3385,9 @@
       </c>
       <c r="D13" t="s">
         <v>178</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8695,7 +8716,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8783,7 +8804,15 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>44847</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16998,7 +17027,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17047,6 +17076,9 @@
       <c r="C2" t="s">
         <v>177</v>
       </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
       <c r="E2">
         <v>13</v>
       </c>
@@ -17054,7 +17086,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17067,6 +17099,9 @@
       <c r="C3" t="s">
         <v>177</v>
       </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
       <c r="E3">
         <v>10</v>
       </c>
@@ -17074,7 +17109,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17088,7 +17123,7 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -17098,6 +17133,9 @@
       </c>
       <c r="G4">
         <v>11</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>180</v>
@@ -17114,7 +17152,7 @@
         <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -17124,6 +17162,9 @@
       </c>
       <c r="G5">
         <v>31</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>180</v>
@@ -17139,6 +17180,9 @@
       <c r="C6" t="s">
         <v>178</v>
       </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
@@ -17146,7 +17190,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17159,6 +17203,9 @@
       <c r="C7" t="s">
         <v>178</v>
       </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
@@ -17166,7 +17213,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
